--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9690" windowHeight="2715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,11 +115,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18683917194</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4367421217374810000</t>
+    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it789123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +483,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -534,10 +538,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10140" windowHeight="3705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,10 @@
   </si>
   <si>
     <t>${BankCardUtils.getBankCardByMobile(${mobile})}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${FinancePlanUtils.getFinanceId(12)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +487,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -552,8 +556,8 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>2781</v>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I2">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="1725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -548,7 +548,7 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>50000</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>8</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12555" windowHeight="1725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it789123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +74,6 @@
   </si>
   <si>
     <t>pay_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smsCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0615</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +116,10 @@
   </si>
   <si>
     <t>${FinancePlanUtils.getFinanceId(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it7891234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +479,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -507,16 +499,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -525,12 +517,9 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -539,35 +528,32 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" t="s">
-        <v>17</v>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="2445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
   </si>
   <si>
     <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payPassword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,10 +92,6 @@
     <rPh sb="8" eb="9">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,7 +471,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -499,13 +491,13 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -514,12 +506,9 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -528,32 +517,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2">
         <v>50000</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="I2" s="2"/>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/licai/LanrenByBalanceSuccessful.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11820" windowHeight="2445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11055" windowHeight="1800"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>it7891234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${ConstantUtils.getCorrectCheckCode()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,28 +499,31 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -523,22 +534,25 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
